--- a/docs/Databaseschema.xlsx
+++ b/docs/Databaseschema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chchawla\Desktop\sendaraven\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1797B0E-1F7E-4C12-BFC4-F2A99BF928FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345694B9-6732-4BFD-837B-81554B2C324A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AA31B9B3-DF80-4F12-AA2A-D6BDA0B2C814}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>DB Design</t>
   </si>
@@ -41,12 +41,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>Tenant Config</t>
-  </si>
-  <si>
-    <t>User Channel</t>
-  </si>
-  <si>
     <t>Template</t>
   </si>
   <si>
@@ -77,12 +71,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Mobile (Countrycode,number)</t>
-  </si>
-  <si>
     <t>Attributes(Key Value pairs)</t>
   </si>
   <si>
@@ -113,13 +101,43 @@
     <t xml:space="preserve">Channel Id </t>
   </si>
   <si>
-    <t>Template id</t>
-  </si>
-  <si>
     <t>Provider</t>
   </si>
   <si>
-    <t>Template format</t>
+    <t>Channel Information</t>
+  </si>
+  <si>
+    <t>Channel Provider</t>
+  </si>
+  <si>
+    <t>Type_provider</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>(maybe another table)</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>MandatoryConfigKeys</t>
+  </si>
+  <si>
+    <t>FYI</t>
+  </si>
+  <si>
+    <t>fyi</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -163,9 +181,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE08CC78-64D4-426E-BA4D-58CA3ACF076A}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,184 +513,207 @@
     <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
